--- a/Data/Techmap/DEModel.xlsx
+++ b/Data/Techmap/DEModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina Hajikazemi\Documents\mycode\CESM\Data\Techmap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\gutriv\CESM\Data\Techmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FD5D5B-35ED-41CF-ADA5-5C37F3BDCAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25D015F-8D1A-40ED-B846-EA1DBF66655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -27,50 +27,19 @@
     <definedName name="Cost_power">Units!$B$6</definedName>
     <definedName name="Energy">Units!$B$3</definedName>
     <definedName name="Money">Units!$B$8</definedName>
-    <definedName name="Power">Units!$B$2</definedName>
+    <definedName name="Power">Units!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="255">
   <si>
     <t>Base</t>
   </si>
@@ -582,9 +551,6 @@
     <t>Temperature_Downgrade</t>
   </si>
   <si>
-    <t>[2016 15600;2050 3950]</t>
-  </si>
-  <si>
     <t>Help_Gas_CHP</t>
   </si>
   <si>
@@ -768,41 +734,83 @@
     <t>Test</t>
   </si>
   <si>
+    <t>[2016 870; 2030 540; 2050 240; 2060 140]</t>
+  </si>
+  <si>
+    <t>test_tss</t>
+  </si>
+  <si>
+    <t>[2016 14.3;2017 NaN]</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>[2016 23.3;2017 NaN]</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>[2015 28;2016 NaN]</t>
+  </si>
+  <si>
+    <t>[2016 3.5 ; 2040 0]</t>
+  </si>
+  <si>
+    <t>[2016 3.5; 2017 NaN]</t>
+  </si>
+  <si>
+    <t>[2016 20600;2050 3950]</t>
+  </si>
+  <si>
+    <t>Demand_NonEnergy</t>
+  </si>
+  <si>
+    <t>GWh</t>
+  </si>
+  <si>
+    <t>Mio t</t>
+  </si>
+  <si>
+    <t>Mio EUR/GWh</t>
+  </si>
+  <si>
+    <t>Mio EUR/GW</t>
+  </si>
+  <si>
+    <t>Mio t/GWh</t>
+  </si>
+  <si>
+    <t>Mio EUR</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>EUR/MWh/a</t>
+  </si>
+  <si>
+    <t>EUR/kW/a</t>
+  </si>
+  <si>
+    <t>TWh/a</t>
+  </si>
+  <si>
+    <t>[2016 0;2035 355]</t>
+  </si>
+  <si>
     <t>[2016 0;2035 180]</t>
-  </si>
-  <si>
-    <t>[2016 0;2035 355]</t>
-  </si>
-  <si>
-    <t>[2016 870; 2030 540; 2050 240; 2060 140]</t>
-  </si>
-  <si>
-    <t>test_tss</t>
-  </si>
-  <si>
-    <t>[2016 14.3;2017 NaN]</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>[2016 23.3;2017 NaN]</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>[2015 28;2016 NaN]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,6 +830,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -853,7 +868,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -903,42 +918,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFAFDF9F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAFDF9F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,8 +1006,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74A02AEB-67CD-4D1C-8FE9-7365E46D98F4}" name="Tabelle4" displayName="Tabelle4" ref="A1:D64" totalsRowShown="0">
-  <autoFilter ref="A1:D64" xr:uid="{A4F2E66D-1024-44EB-B26C-9EF3C2ACFA7D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74A02AEB-67CD-4D1C-8FE9-7365E46D98F4}" name="Tabelle4" displayName="Tabelle4" ref="A1:D65" totalsRowShown="0">
+  <autoFilter ref="A1:D65" xr:uid="{A4F2E66D-1024-44EB-B26C-9EF3C2ACFA7D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{68045503-4D44-4DCF-9110-03DFC110F65E}" name="conversion_process_name"/>
     <tableColumn id="2" xr3:uid="{B201BB8F-62F7-4A39-95D4-A92A4057D6C7}" name="description"/>
@@ -1000,8 +1019,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3B410155-A5BA-46F0-9E6F-5ACE99BE50CB}" name="Tabelle5" displayName="Tabelle5" ref="A1:Z93" totalsRowShown="0">
-  <autoFilter ref="A1:Z93" xr:uid="{CC8370AE-B0DF-4511-8343-A59356928224}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3B410155-A5BA-46F0-9E6F-5ACE99BE50CB}" name="Tabelle5" displayName="Tabelle5" ref="A1:Z94" totalsRowShown="0">
+  <autoFilter ref="A1:Z94" xr:uid="{CC8370AE-B0DF-4511-8343-A59356928224}"/>
   <tableColumns count="26">
     <tableColumn id="2" xr3:uid="{54C95160-A387-4A69-A36D-F51CAC324BA8}" name="conversion_process_name"/>
     <tableColumn id="3" xr3:uid="{F734FC28-E1F0-40DB-9868-A9E76CEF9705}" name="commodity_in"/>
@@ -1346,148 +1365,129 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="7"/>
-    <col min="3" max="3" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="7"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="str">
-        <f>Power</f>
-        <v>GW</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <f>IF(B2="GW", "TWh",IF(B2="MW","GWh","MWh"))</f>
-        <v>TWh</v>
-      </c>
-      <c r="C3" s="7">
-        <f>C2*1000</f>
+      <c r="B3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3">
         <v>1000</v>
       </c>
-      <c r="D3" s="7" t="str">
-        <f>D2&amp;"h"</f>
-        <v>GWh</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="D3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="7" t="str">
-        <f>IF(B2="kW","t",IF(B2="MW","kilo t","Mio t"))</f>
-        <v>Mio t</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="str">
-        <f>CO2_emission</f>
-        <v>Mio t</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="D4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>1E-3</v>
       </c>
-      <c r="D5" s="7" t="str">
-        <f>Money&amp;"/"&amp;D3</f>
-        <v>Mio EUR/GWh</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="D5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7">
-        <f>1</f>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="str">
-        <f>Money&amp;"/"&amp;D2</f>
-        <v>Mio EUR/GW</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="D6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>1E-3</v>
       </c>
-      <c r="D7" s="7" t="str">
-        <f>D4&amp;"/"&amp;D3</f>
-        <v>Mio t/GWh</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="D7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="16" t="str">
-        <f>IF(B2="GW", "Mio EUR",IF(B2="MW","k EUR","EUR"))</f>
-        <v>Mio EUR</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="16" t="str">
-        <f>Money</f>
-        <v>Mio EUR</v>
+      <c r="D8" s="10" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{8C7B620F-8664-4C02-A122-B8E48C3DAB3B}">
-      <formula1>"GW,MW,kW"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1497,22 +1497,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C314D8A4-C600-4AA7-912A-1904B77A7F29}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -1538,15 +1538,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.05</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>234</v>
+      <c r="C2" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="E2">
         <v>2015</v>
@@ -1557,13 +1557,13 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3">
         <v>0.05</v>
@@ -1578,10 +1578,10 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1624,12 +1624,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>92</v>
       </c>
       <c r="B6">
         <v>0.05</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="E6">
         <v>2015</v>
@@ -1658,16 +1661,16 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -1681,177 +1684,176 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1865,19 +1867,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70369A52-6DA6-442B-A9B0-7FE85C1EDFA1}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -1891,84 +1893,84 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -1976,7 +1978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -1984,346 +1986,340 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D37">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D39">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D40">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C44" t="s">
         <v>146</v>
       </c>
-      <c r="D42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="D44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C46" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="D46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C48" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="D48">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>168</v>
       </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D52">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D54">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" t="s">
         <v>139</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D57">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D58">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>228</v>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2337,43 +2333,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B031A-8F6B-4A01-B2DE-DD19A2E3D336}">
-  <dimension ref="A1:Z93"/>
+  <dimension ref="A1:Z94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N50" sqref="N50"/>
+      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="7" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="20.26953125" customWidth="1"/>
-    <col min="11" max="12" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" customWidth="1"/>
-    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
+    <col min="11" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="17.7265625" customWidth="1"/>
+    <col min="17" max="17" width="17.77734375" customWidth="1"/>
     <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7265625" customWidth="1"/>
-    <col min="20" max="20" width="13.26953125" customWidth="1"/>
-    <col min="21" max="21" width="14.26953125" customWidth="1"/>
-    <col min="22" max="22" width="14.453125" customWidth="1"/>
-    <col min="23" max="23" width="12.7265625" customWidth="1"/>
-    <col min="24" max="24" width="13.7265625" customWidth="1"/>
-    <col min="25" max="25" width="17.26953125" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" customWidth="1"/>
+    <col min="20" max="20" width="13.21875" customWidth="1"/>
+    <col min="21" max="21" width="14.21875" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="12.77734375" customWidth="1"/>
+    <col min="24" max="24" width="13.77734375" customWidth="1"/>
+    <col min="25" max="25" width="17.21875" customWidth="1"/>
+    <col min="26" max="26" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -2386,13 +2382,13 @@
       <c r="D1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
         <v>101</v>
       </c>
       <c r="H1" t="s">
@@ -2453,118 +2449,104 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="6" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="9" t="s">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="1" t="str">
-        <f>[0]!Co2_spec</f>
-        <v>kg/kWh</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <f>Power</f>
-        <v>GW</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <f>Power</f>
-        <v>GW</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <f>Power</f>
-        <v>GW</v>
-      </c>
-      <c r="N3" s="1" t="str">
-        <f>Power</f>
-        <v>GW</v>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="1" t="str">
-        <f>[0]!Cost_energy&amp;"/a"</f>
-        <v>EUR/MWh/a</v>
-      </c>
-      <c r="Q3" s="1" t="str">
-        <f>[0]!Cost_power&amp;"/a"</f>
-        <v>EUR/kW/a</v>
-      </c>
-      <c r="R3" s="1" t="str">
-        <f>[0]!Cost_power</f>
-        <v>EUR/kW</v>
-      </c>
-      <c r="S3" s="1" t="str" cm="1">
-        <f t="array" ref="S3">[0]!Energy &amp;"/a"</f>
-        <v>TWh/a</v>
-      </c>
-      <c r="T3" s="1" t="str">
-        <f>[0]!Energy &amp;"/a"</f>
-        <v>TWh/a</v>
-      </c>
-      <c r="Z3" s="1" t="str">
-        <f>Money</f>
-        <v>Mio EUR</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="P3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
@@ -2580,33 +2562,33 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="4">
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="3">
         <v>310</v>
       </c>
-      <c r="T4" s="5"/>
+      <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2622,31 +2604,31 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.34</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="5"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -2662,31 +2644,31 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.27</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="5"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -2702,31 +2684,31 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.4</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="5">
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2">
         <v>6.1</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="5"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -2742,31 +2724,31 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.2</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="5"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
@@ -2782,28 +2764,28 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="5"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
@@ -2819,30 +2801,30 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.38</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="4"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="4">
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3">
         <v>69</v>
       </c>
-      <c r="T10" s="5"/>
+      <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>128</v>
       </c>
@@ -2858,33 +2840,33 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="5">
+      <c r="H11" s="2">
         <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="5" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5">
-        <v>0</v>
-      </c>
-      <c r="T11" s="5"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2893,22 +2875,22 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="5"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
@@ -2927,23 +2909,23 @@
       <c r="I13" s="2">
         <v>0.88</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="5"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>131</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2961,23 +2943,23 @@
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="5"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2995,22 +2977,22 @@
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="5"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3019,22 +3001,22 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="5"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
@@ -3053,25 +3035,25 @@
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="4"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="T17" s="4" t="s">
-        <v>179</v>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="T17" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="5" t="s">
+      <c r="Y17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -3090,25 +3072,25 @@
       <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="4"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="T18" s="4">
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="T18" s="3">
         <v>511</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="5" t="s">
+      <c r="Y18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -3127,25 +3109,25 @@
       <c r="I19" s="2">
         <v>1</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="T19" s="4">
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="T19" s="3">
         <v>250</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="5" t="s">
+      <c r="Y19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
@@ -3164,25 +3146,25 @@
       <c r="I20" s="2">
         <v>1</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="T20" s="4">
+      <c r="J20" s="2"/>
+      <c r="K20" s="3"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="T20" s="3">
         <v>245</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="5" t="s">
+      <c r="Y20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z20" s="5"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>83</v>
       </c>
@@ -3201,25 +3183,25 @@
       <c r="I21" s="2">
         <v>1</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="T21" s="4">
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="T21" s="3">
         <v>210</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="5" t="s">
+      <c r="Y21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
@@ -3238,26 +3220,26 @@
       <c r="I22" s="2">
         <v>1</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="T22" s="4">
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="T22" s="3">
         <v>11</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="5" t="s">
+      <c r="Y22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z22" s="5"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>159</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3275,101 +3257,89 @@
       <c r="I23" s="2">
         <v>1</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="4"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="4"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="T23" s="4">
+      <c r="J23" s="2"/>
+      <c r="K23" s="3"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="T23" s="3">
         <v>135</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="5" t="s">
+      <c r="Y23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="4"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="5"/>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="2">
+        <v>220</v>
+      </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="N25" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="O25" s="4">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>165</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="5"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
@@ -3381,42 +3351,42 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="I26" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="J26" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J26" s="2">
         <v>0.86</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="N26" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O26" s="4">
-        <v>40</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>20</v>
-      </c>
-      <c r="R26" s="5">
-        <v>1500</v>
-      </c>
-      <c r="S26" s="4"/>
-      <c r="T26" s="5"/>
+      <c r="K26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>165</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>19</v>
@@ -3428,42 +3398,42 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="N27" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="O27" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>13</v>
-      </c>
-      <c r="R27" s="5">
-        <v>400</v>
-      </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="5"/>
+        <v>0.38</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="N27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>20</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1500</v>
+      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>19</v>
@@ -3475,42 +3445,45 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="I28" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="J28" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="N28" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="O28" s="4">
-        <v>40</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>50</v>
-      </c>
-      <c r="R28" s="5">
-        <v>1600</v>
-      </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O28" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>13</v>
+      </c>
+      <c r="R28" s="2">
+        <v>200</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
@@ -3522,109 +3495,113 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="I29" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="N29" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O29" s="4">
-        <v>60</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>102</v>
-      </c>
-      <c r="R29" s="5">
-        <v>3323</v>
-      </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="5"/>
+        <v>0.37</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="N29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>50</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1600</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="5"/>
+      <c r="I30" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="N30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O30" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>102</v>
+      </c>
+      <c r="R30" s="2">
+        <v>3323</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z30" s="2"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="N31" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="O31" s="4"/>
-      <c r="Q31" s="5">
-        <v>15</v>
-      </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="5"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="3"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>194</v>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>192</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -3641,37 +3618,33 @@
       <c r="I32" s="2">
         <v>1</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="N32" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="O32" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q32" s="5">
+      <c r="J32" s="2"/>
+      <c r="K32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O32" s="3"/>
+      <c r="Q32" s="2">
         <v>15</v>
       </c>
-      <c r="R32" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="S32" s="4"/>
-      <c r="T32" s="5"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>168</v>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>193</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
@@ -3688,35 +3661,37 @@
       <c r="I33" s="2">
         <v>1</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="N33" s="5">
-        <v>3.8</v>
-      </c>
-      <c r="O33" s="4">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>12</v>
-      </c>
-      <c r="R33" s="5">
-        <v>5000</v>
-      </c>
-      <c r="S33" s="4"/>
-      <c r="T33" s="5"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="N33" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>15</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="S33" s="3"/>
+      <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>189</v>
+      <c r="Y33" s="2"/>
+      <c r="Z33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>168</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>17</v>
@@ -3733,35 +3708,35 @@
       <c r="I34" s="2">
         <v>1</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O34" s="4"/>
-      <c r="Q34" s="5">
-        <v>93</v>
-      </c>
-      <c r="R34" s="5"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="5"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="N34" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="O34" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>12</v>
+      </c>
+      <c r="R34" s="2">
+        <v>5000</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
-        <v>190</v>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>188</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>17</v>
@@ -3778,37 +3753,35 @@
       <c r="I35" s="2">
         <v>1</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="4">
-        <v>0</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="N35" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="O35" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="5">
+      <c r="J35" s="2"/>
+      <c r="K35" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O35" s="3"/>
+      <c r="Q35" s="2">
         <v>93</v>
       </c>
-      <c r="R35" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="S35" s="4"/>
-      <c r="T35" s="5"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
-        <v>191</v>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>189</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>17</v>
@@ -3825,35 +3798,37 @@
       <c r="I36" s="2">
         <v>1</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O36" s="4"/>
-      <c r="Q36" s="5">
-        <v>13</v>
-      </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="5"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="N36" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="O36" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>93</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="S36" s="3"/>
+      <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
-        <v>192</v>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>190</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>17</v>
@@ -3870,84 +3845,85 @@
       <c r="I37" s="2">
         <v>1</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="4">
-        <v>0</v>
-      </c>
-      <c r="L37" s="5"/>
-      <c r="N37" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="O37" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q37" s="5">
+      <c r="J37" s="2"/>
+      <c r="K37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O37" s="3"/>
+      <c r="Q37" s="2">
         <v>13</v>
       </c>
-      <c r="R37" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="S37" s="4"/>
-      <c r="T37" s="5"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5" t="s">
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="N38" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O38" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>13</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B40" s="2" t="s">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="I40" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="4"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="R40" s="5">
-        <v>220</v>
-      </c>
-      <c r="S40" s="4">
-        <v>120</v>
-      </c>
-      <c r="T40" s="4">
-        <v>70</v>
-      </c>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>80</v>
@@ -3959,39 +3935,39 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="I41" s="2">
-        <v>1</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="4"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="4">
-        <v>13</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
-        <v>60</v>
-      </c>
-      <c r="S41" s="4"/>
-      <c r="T41" s="5">
-        <v>40</v>
+        <v>0.83</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="3"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="R41" s="2">
+        <v>220</v>
+      </c>
+      <c r="S41" s="3">
+        <v>120</v>
+      </c>
+      <c r="T41" s="3">
+        <v>70</v>
       </c>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
-      <c r="Y41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z41" s="5"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>202</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>80</v>
@@ -4003,107 +3979,111 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="I42" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="4"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="R42" s="5">
-        <v>15</v>
-      </c>
-      <c r="S42" s="4"/>
-      <c r="T42" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="3">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>60</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="2">
+        <v>40</v>
+      </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="Y42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z42" s="2"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="I43" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="3"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="R43" s="2">
+        <v>15</v>
+      </c>
+      <c r="S43" s="3"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="4"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="4"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="3"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="3"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="I46" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="4"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="R46" s="5">
-        <v>220</v>
-      </c>
-      <c r="S46" s="4"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>82</v>
@@ -4115,35 +4095,35 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="I47" s="2">
-        <v>3</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="4"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="S47" s="4"/>
-      <c r="T47" s="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="3"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="R47" s="2">
+        <v>220</v>
+      </c>
+      <c r="S47" s="3"/>
+      <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>207</v>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>82</v>
@@ -4155,188 +4135,177 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="I48" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="4"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="R48" s="5">
-        <v>220</v>
-      </c>
-      <c r="S48" s="4"/>
-      <c r="T48" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="3"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-      <c r="Y48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z48" s="5"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="4"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="4"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="5"/>
+      <c r="I49" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="3"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="R49" s="2">
+        <v>220</v>
+      </c>
+      <c r="S49" s="3"/>
+      <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z49" s="2"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="I50" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O50" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q50" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="S50" s="4"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="3"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="3"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
+      <c r="I51" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O51" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S51" s="3"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="I52" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O52" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="5">
-        <v>20</v>
-      </c>
-      <c r="R52" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="S52" s="4"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="2" t="s">
-        <v>217</v>
-      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z52" s="5"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
-        <v>215</v>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>213</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>78</v>
@@ -4348,48 +4317,46 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="I53" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O53" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O53" s="3">
         <v>20</v>
       </c>
-      <c r="Q53" s="5">
-        <v>10</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="S53" s="4"/>
-      <c r="T53" s="5"/>
+      <c r="Q53" s="2">
+        <v>20</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S53" s="3"/>
+      <c r="T53" s="2"/>
       <c r="U53" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V53" s="2">
-        <v>0.55000000000000004</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
-      <c r="Y53" s="5" t="s">
+      <c r="Y53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z53" s="5"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
-        <v>212</v>
+      <c r="Z53" s="2"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>214</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>78</v>
@@ -4401,42 +4368,48 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="I54" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="5"/>
-      <c r="N54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O54" s="4">
-        <v>17</v>
-      </c>
-      <c r="Q54" s="5">
-        <v>18</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="S54" s="4"/>
-      <c r="T54" s="5"/>
+        <v>0.97</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O54" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>10</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="S54" s="3"/>
+      <c r="T54" s="2"/>
       <c r="U54" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="V54" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
-      <c r="Y54" s="5" t="s">
+      <c r="Y54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z54" s="5"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
-        <v>216</v>
+      <c r="Z54" s="2"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>211</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>78</v>
@@ -4448,46 +4421,42 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="I55" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O55" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q55" s="5">
-        <v>15</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="S55" s="4"/>
-      <c r="T55" s="5"/>
+        <v>3.7</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="2"/>
+      <c r="N55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O55" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>18</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="S55" s="3"/>
+      <c r="T55" s="2"/>
       <c r="U55" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-      <c r="Y55" s="5" t="s">
+      <c r="Y55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z55" s="5"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
-        <v>213</v>
+      <c r="Z55" s="2"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>215</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>78</v>
@@ -4499,61 +4468,88 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="I56" s="2">
-        <v>1</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O56" s="3">
         <v>20</v>
       </c>
-      <c r="Q56" s="5">
+      <c r="Q56" s="2">
         <v>15</v>
       </c>
-      <c r="R56" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="S56" s="4"/>
-      <c r="T56" s="5"/>
+      <c r="R56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S56" s="3"/>
+      <c r="T56" s="2"/>
       <c r="U56" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
-      <c r="Y56" s="5" t="s">
+      <c r="Y56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z56" s="5"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="Z56" s="2"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="4"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="4"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="2"/>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>15</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="S57" s="3"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z57" s="2"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4562,64 +4558,54 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="4"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="4"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="5"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="3"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="3"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="I59" s="2">
-        <v>1</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="4"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="4"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="5"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="3"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="3"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>0</v>
@@ -4630,24 +4616,22 @@
       <c r="I60" s="2">
         <v>1</v>
       </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="4"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="4"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="5"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="3"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="3"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-      <c r="W60" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="W60" s="2"/>
       <c r="X60" s="2"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>162</v>
       </c>
@@ -4655,7 +4639,7 @@
         <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>0</v>
@@ -4666,38 +4650,24 @@
       <c r="I61" s="2">
         <v>1</v>
       </c>
-      <c r="J61" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="K61" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="N61" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="O61" s="4">
-        <v>45</v>
-      </c>
-      <c r="Q61" s="5">
-        <v>104</v>
-      </c>
-      <c r="R61" s="5">
-        <v>3500</v>
-      </c>
-      <c r="S61" s="4"/>
-      <c r="T61" s="5"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="3"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="3"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="X61" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>162</v>
       </c>
@@ -4705,7 +4675,7 @@
         <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>0</v>
@@ -4716,88 +4686,104 @@
       <c r="I62" s="2">
         <v>1</v>
       </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="4"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="4"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="5"/>
+      <c r="J62" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O62" s="3">
+        <v>45</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>104</v>
+      </c>
+      <c r="R62" s="2">
+        <v>3500</v>
+      </c>
+      <c r="S62" s="3"/>
+      <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="W62" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X62" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="4"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="4"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="5"/>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="3"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="3"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="I64" s="2">
-        <v>1</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="4"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="4"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="5"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="3"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="3"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>0</v>
@@ -4805,25 +4791,25 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="4"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="4"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="5"/>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="3"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="3"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
-      <c r="W65" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="W65" s="2"/>
       <c r="X65" s="2"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>161</v>
       </c>
@@ -4831,7 +4817,7 @@
         <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>0</v>
@@ -4840,40 +4826,24 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="I66" s="2"/>
-      <c r="J66" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N66" s="5"/>
-      <c r="O66" s="4">
-        <v>45</v>
-      </c>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="5">
-        <v>54</v>
-      </c>
-      <c r="R66" s="5">
-        <v>2880</v>
-      </c>
-      <c r="S66" s="4"/>
-      <c r="T66" s="5"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="3"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="3"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="X66" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>161</v>
       </c>
@@ -4881,7 +4851,7 @@
         <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>0</v>
@@ -4890,92 +4860,105 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="I67" s="2"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="4"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="4"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="5"/>
+      <c r="J67" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="3">
+        <v>45</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>54</v>
+      </c>
+      <c r="R67" s="2">
+        <v>2880</v>
+      </c>
+      <c r="S67" s="3"/>
+      <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="W67" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="X67" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="I68" s="2"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="4"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="4"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="5"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="3"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="3"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z68" s="2"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="I69" s="2">
-        <v>1</v>
-      </c>
-      <c r="J69" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="K69" s="4"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="4"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="5"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="3"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="3"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>0</v>
@@ -4983,33 +4966,35 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="4"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="4"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="5"/>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K70" s="3"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="3"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-      <c r="W70" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="W70" s="2"/>
       <c r="X70" s="2"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>0</v>
@@ -5018,45 +5003,32 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="I71" s="2"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L71" s="4"/>
-      <c r="N71" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="O71" s="4">
-        <v>30</v>
-      </c>
-      <c r="Q71" s="5">
-        <v>41</v>
-      </c>
-      <c r="R71" s="5">
-        <v>1020</v>
-      </c>
-      <c r="S71" s="4"/>
-      <c r="T71" s="5"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="3"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="3"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="X71" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0.2</v>
+      </c>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>0</v>
@@ -5065,370 +5037,401 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="I72" s="2"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="4"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="4"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="5"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O72" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>41</v>
+      </c>
+      <c r="R72" s="2">
+        <v>1020</v>
+      </c>
+      <c r="S72" s="3"/>
+      <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+      <c r="W72" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="X72" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="3"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="3"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="I74" s="2">
+      <c r="D75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="I75" s="2">
         <v>0.36</v>
       </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="N74" s="5"/>
-      <c r="O74" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q74" s="5">
-        <v>590</v>
-      </c>
-      <c r="R74" s="5">
-        <v>1000</v>
-      </c>
-      <c r="S74" s="4"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z74" s="5"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="I75" s="3">
-        <v>1</v>
-      </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="N75" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="J75" s="2"/>
+      <c r="K75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="3">
         <v>15</v>
       </c>
-      <c r="Q75" s="3">
-        <v>450</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>170</v>
+      <c r="Q75" s="2">
+        <v>590</v>
+      </c>
+      <c r="R75" s="2">
+        <v>1000</v>
       </c>
       <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3" t="s">
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z75" s="5"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A76" s="7" t="s">
-        <v>129</v>
+      <c r="Z75" s="2"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>48</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
       <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O76">
+        <v>15</v>
+      </c>
+      <c r="Q76">
+        <v>450</v>
+      </c>
+      <c r="R76" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z76" s="2"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
         <v>133</v>
       </c>
-      <c r="D76" t="s">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="D77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>0.7</v>
       </c>
-      <c r="Q76" s="3" t="s">
+      <c r="Q77" t="s">
         <v>136</v>
       </c>
-      <c r="R76" s="3" t="s">
+      <c r="R77" t="s">
         <v>135</v>
       </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="I77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" s="7" t="s">
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I78" s="3"/>
-      <c r="P78" s="7">
+      <c r="C79" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" t="s">
+        <v>0</v>
+      </c>
+      <c r="P79">
         <v>100000</v>
       </c>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>228</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="7" t="s">
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>227</v>
+      </c>
+      <c r="B80" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C80" s="7" t="s">
+      <c r="D80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" t="s">
         <v>78</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C81" s="7" t="s">
+      <c r="D81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C82" s="7" t="s">
+      <c r="D82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C83" s="7" t="s">
+      <c r="D83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="D84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C85" s="7" t="s">
+      <c r="D85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>227</v>
+      </c>
+      <c r="B86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86" t="s">
         <v>45</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="D86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C87" s="7" t="s">
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>227</v>
+      </c>
+      <c r="B88" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" t="s">
         <v>76</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C89" s="7" t="s">
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>227</v>
+      </c>
+      <c r="B90" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" t="s">
         <v>47</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C90" s="7" t="s">
+      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C91" s="7" t="s">
+      <c r="D91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>227</v>
+      </c>
+      <c r="B92" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" t="s">
         <v>72</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C92" s="7" t="s">
+      <c r="D92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" t="s">
         <v>133</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C93" s="7" t="s">
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" t="s">
         <v>130</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D94" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5449,13 +5452,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -5477,9 +5480,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -5488,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -5496,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>98</v>
       </c>
